--- a/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200213.xlsx
+++ b/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200213.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yiqing\COVID-19\data\unchecked\manual_collect\china\gansu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82429969-299A-4AED-A9C3-EB80DF636679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4632" yWindow="2232" windowWidth="17280" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4630" yWindow="2230" windowWidth="17280" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -384,7 +383,7 @@
     <definedName name="自贡市">中国各省市区县数据!$C$2043:$C$2048</definedName>
     <definedName name="遵义市">中国各省市区县数据!$C$2220:$C$2233</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -400,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9379" uniqueCount="3316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9363" uniqueCount="3314">
   <si>
     <t>统计级别</t>
   </si>
@@ -10370,23 +10369,16 @@
   <si>
     <t>http://wsjk.gansu.gov.cn/single/11218/84091.html</t>
   </si>
-  <si>
-    <t>20200214 0926</t>
-  </si>
-  <si>
-    <t>20200214 0926</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10454,13 +10446,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="仿宋_GB2312"/>
@@ -10506,7 +10491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10560,8 +10545,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10842,50 +10830,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3:Z18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.3828125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.07421875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.921875" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.07421875" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.90625" style="13"/>
+    <col min="40" max="40" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.921875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="16.2">
+    <row r="1" spans="1:40" s="18" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -10987,7 +10975,7 @@
       </c>
       <c r="AN1" s="16"/>
     </row>
-    <row r="2" spans="1:40" s="18" customFormat="1" ht="16.2">
+    <row r="2" spans="1:40" s="18" customFormat="1">
       <c r="A2" s="16" t="s">
         <v>3260</v>
       </c>
@@ -11160,8 +11148,8 @@
         <v>3313</v>
       </c>
       <c r="W3" s="15"/>
-      <c r="Z3" s="20" t="s">
-        <v>3315</v>
+      <c r="Z3" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA3" s="20" t="s">
         <v>3305</v>
@@ -11210,8 +11198,8 @@
       <c r="V4" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z4" s="20" t="s">
-        <v>3315</v>
+      <c r="Z4" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA4" s="20" t="s">
         <v>3305</v>
@@ -11260,8 +11248,8 @@
       <c r="V5" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z5" s="20" t="s">
-        <v>3314</v>
+      <c r="Z5" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA5" s="20" t="s">
         <v>3305</v>
@@ -11313,8 +11301,8 @@
       <c r="V6" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z6" s="20" t="s">
-        <v>3314</v>
+      <c r="Z6" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA6" s="20" t="s">
         <v>3305</v>
@@ -11366,8 +11354,8 @@
       <c r="V7" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z7" s="20" t="s">
-        <v>3314</v>
+      <c r="Z7" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA7" s="20" t="s">
         <v>3305</v>
@@ -11411,8 +11399,8 @@
       <c r="V8" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z8" s="20" t="s">
-        <v>3314</v>
+      <c r="Z8" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA8" s="20" t="s">
         <v>3305</v>
@@ -11455,8 +11443,8 @@
       <c r="V9" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>3314</v>
+      <c r="Z9" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA9" s="20" t="s">
         <v>3305</v>
@@ -11499,8 +11487,8 @@
       <c r="V10" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>3314</v>
+      <c r="Z10" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA10" s="20" t="s">
         <v>3305</v>
@@ -11543,8 +11531,8 @@
       <c r="V11" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z11" s="20" t="s">
-        <v>3314</v>
+      <c r="Z11" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA11" s="20" t="s">
         <v>3305</v>
@@ -11587,8 +11575,8 @@
       <c r="V12" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z12" s="20" t="s">
-        <v>3314</v>
+      <c r="Z12" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA12" s="20" t="s">
         <v>3305</v>
@@ -11631,8 +11619,8 @@
       <c r="V13" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z13" s="20" t="s">
-        <v>3314</v>
+      <c r="Z13" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA13" s="20" t="s">
         <v>3305</v>
@@ -11671,8 +11659,8 @@
       <c r="V14" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z14" s="20" t="s">
-        <v>3314</v>
+      <c r="Z14" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA14" s="20" t="s">
         <v>3305</v>
@@ -11711,8 +11699,8 @@
       <c r="V15" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z15" s="20" t="s">
-        <v>3314</v>
+      <c r="Z15" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA15" s="20" t="s">
         <v>3305</v>
@@ -11751,8 +11739,8 @@
       <c r="V16" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z16" s="20" t="s">
-        <v>3314</v>
+      <c r="Z16" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA16" s="20" t="s">
         <v>3305</v>
@@ -11793,8 +11781,8 @@
       <c r="V17" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z17" s="20" t="s">
-        <v>3314</v>
+      <c r="Z17" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA17" s="20" t="s">
         <v>3305</v>
@@ -11840,8 +11828,8 @@
       <c r="V18" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="Z18" s="20" t="s">
-        <v>3314</v>
+      <c r="Z18" s="22">
+        <v>43875.393055555556</v>
       </c>
       <c r="AA18" s="20" t="s">
         <v>3305</v>
@@ -11853,25 +11841,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK1048576 AE3:AE1048576 AA3:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK1048576 AE3:AE1048576 AA3:AA1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM1048576 AG3:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM1048576 AG3:AG1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>INDIRECT($F3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>INDIRECT($G3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11880,7 +11868,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -11893,7 +11881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" zoomScale="160" workbookViewId="0">
@@ -11901,10 +11889,10 @@
       <selection pane="bottomLeft" activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
